--- a/projekt/hard_data/hard_data_excel_table.xlsx
+++ b/projekt/hard_data/hard_data_excel_table.xlsx
@@ -8,17 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thujn\OUISproject\projekt\hard_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E267C-6A59-41D9-B502-26F43B3844FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADADD7F-0BD8-4372-B0A2-54786F18D8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$B$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1:$H$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$2:$H$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$2:$H$19</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -277,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -286,7 +316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1349,13 +1378,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1665,7 +1694,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A8A385C-06DD-4476-A25E-C6BD4B27139B}" name="Kontingenční tabulka5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A8A385C-06DD-4476-A25E-C6BD4B27139B}" name="Kontingenční tabulka5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2137,18 +2166,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBC573F-BE0E-4093-97BD-F6911AC3B2D7}">
   <dimension ref="A3:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2159,102 +2188,102 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -2268,23 +2297,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2362,7 +2391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2414,7 +2443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2440,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2622,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +2703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2700,7 +2729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2726,7 +2755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2752,7 +2781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2778,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2806,5 +2835,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projekt/hard_data/hard_data_excel_table.xlsx
+++ b/projekt/hard_data/hard_data_excel_table.xlsx
@@ -8,53 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thujn\OUISproject\projekt\hard_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADADD7F-0BD8-4372-B0A2-54786F18D8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6A6B0-4F61-4FF2-8B27-FD061ACDA2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="List2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$B$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1:$H$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$2:$H$19</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="70" r:id="rId4"/>
+    <pivotCache cacheId="81" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -252,6 +224,9 @@
   </si>
   <si>
     <t>Počet z name</t>
+  </si>
+  <si>
+    <t>Počet z place</t>
   </si>
 </sst>
 </file>
@@ -307,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -316,6 +291,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -481,7 +457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$C$3</c:f>
+              <c:f>List1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -501,74 +477,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>List1!$A$4:$B$12</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>List1!$A$4:$A$12</c:f>
+              <c:strCache>
                 <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Š9A/67a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>T118</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>K266</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Š3/307</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Š3/307</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Š1/210</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Š8/18</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>TělCHOD</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>K44/109</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Analýza informačních zdrojů</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Analýzy a kritické myšlení</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Anglický jazyk</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Aplikované bezpečnostní technologie</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Kybernetická bezpečnost</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Německý jazyk</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Počítačové sítě a jejich bezpečnost</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Tělesná výchova</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>VOP</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Analýza informačních zdrojů</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analýzy a kritické myšlení</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anglický jazyk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aplikované bezpečnostní technologie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kybernetická bezpečnost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Německý jazyk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Počítačové sítě a jejich bezpečnost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tělesná výchova</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$C$4:$C$12</c:f>
+              <c:f>List1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -826,7 +771,460 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[hard_data_excel_table.xlsx]List2!Kontingenční tabulka17</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Počet z place</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Celkem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List2!$A$4:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>K266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K44/109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Š1/210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Š3/307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Š8/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Š9A/67a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TělCHOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDBF-4957-94E3-21DDB20F43B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="934874096"/>
+        <c:axId val="934865456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="934874096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934865456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934865456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934874096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1371,6 +1769,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1392,6 +2293,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6A23EF-FD1A-8778-DBE2-F165E9BF02A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675F00BD-9F1D-B28D-70E2-3BCDAB9E33BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,6 +2440,64 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tomáš Hujňák" refreshedDate="45440.418178472224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{0EDFE995-6943-4652-84EA-4E12F31FB04F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H20" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Aplikované bezpečnostní technologie"/>
+        <s v="Anglický jazyk"/>
+        <s v="Analýzy a kritické myšlení"/>
+        <s v="VOP"/>
+        <s v="Kybernetická bezpečnost"/>
+        <s v="Analýza informačních zdrojů"/>
+        <s v="Tělesná výchova"/>
+        <s v="Počítačové sítě a jejich bezpečnost"/>
+        <s v="Německý jazyk"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="place" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Š3/307"/>
+        <s v="K266"/>
+        <s v="T118"/>
+        <s v="K44/109"/>
+        <s v="Š9A/67a"/>
+        <s v="TělCHOD"/>
+        <s v="Š8/18"/>
+        <s v="Š1/210"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="startdate" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="enddate" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="duration" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="eventType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="group_id" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="group_name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
   <r>
@@ -1693,9 +2693,204 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="2024-05-27T08:00:00"/>
+    <s v="2024-05-27T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Laboratoř"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="2024-05-27T09:50:00"/>
+    <s v="2024-05-27T11:20:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2024-05-27T11:40:00"/>
+    <s v="2024-05-27T13:10:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="2024-05-27T14:30:00"/>
+    <s v="2024-05-27T16:00:00"/>
+    <s v="1:30:00"/>
+    <s v="Přednáška"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="2024-05-28T08:00:00"/>
+    <s v="2024-05-28T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="2024-05-28T09:50:00"/>
+    <s v="2024-05-28T11:20:00"/>
+    <s v="1:30:00"/>
+    <s v="Laboratoř"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <s v="2024-05-28T11:40:00"/>
+    <s v="2024-05-28T13:10:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2024-05-28T14:30:00"/>
+    <s v="2024-05-28T16:00:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="2024-05-29T08:00:00"/>
+    <s v="2024-05-29T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Přednáška"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="2024-05-29T09:50:00"/>
+    <s v="2024-05-29T11:20:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2024-05-29T11:40:00"/>
+    <s v="2024-05-29T13:10:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <s v="2024-05-29T08:00:00"/>
+    <s v="2024-05-29T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="2024-05-30T08:00:00"/>
+    <s v="2024-05-30T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Laboratoř"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="2024-05-30T09:50:00"/>
+    <s v="2024-05-30T11:20:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <s v="2024-05-30T11:40:00"/>
+    <s v="2024-05-30T13:10:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <s v="2024-05-30T08:00:00"/>
+    <s v="2024-05-30T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <s v="2024-05-31T08:00:00"/>
+    <s v="2024-05-31T09:30:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="2024-05-31T09:50:00"/>
+    <s v="2024-05-31T11:20:00"/>
+    <s v="1:30:00"/>
+    <s v="Laboratoř"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2024-05-31T11:40:00"/>
+    <s v="2024-05-31T13:10:00"/>
+    <s v="1:30:00"/>
+    <s v="Cvičení"/>
+    <s v="9baf3b54-ae0f-11ed-9bd8-0242ac110002"/>
+    <s v="22-5KB-A"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A8A385C-06DD-4476-A25E-C6BD4B27139B}" name="Kontingenční tabulka5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A8A385C-06DD-4476-A25E-C6BD4B27139B}" name="Kontingenční tabulka5" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="9">
@@ -1715,7 +2910,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
         <item x="1"/>
         <item x="3"/>
@@ -1808,46 +3003,36 @@
       </extLst>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
   <rowItems count="9">
     <i>
       <x/>
-      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
-      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
-      <x/>
     </i>
     <i>
-      <x v="3"/>
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="2"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="4"/>
     </i>
     <i>
-      <x v="7"/>
       <x v="7"/>
     </i>
     <i>
       <x v="8"/>
-      <x v="1"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -1855,6 +3040,146 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Počet z name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0079B279-E515-4480-BAB0-C425570354D2}" name="Kontingenční tabulka17" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Počet z place" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -2164,126 +3489,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBC573F-BE0E-4093-97BD-F6911AC3B2D7}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2294,11 +3589,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C965195-7C28-494C-8D07-DBFDCC9F56F6}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
